--- a/biology/Histoire de la zoologie et de la botanique/C.R._Narayan_Rao/C.R._Narayan_Rao.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/C.R._Narayan_Rao/C.R._Narayan_Rao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">C.R. Narayan Rao est un zoologiste indien, né le 15 août 1882 à Coimbatore et mort le 2 janvier 1960 à Bangalore.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études à Bellary avant de venir au Madras Christian College où il suit notamment les cours du professeur Henderson, directeur du département de zoologie. Après l'obtention de son diplôme, il enseigne à Coimbatore et à Ernakulam, avant de venir au College Central de Bangalore pour y organiser le département de zoologie et dont il assure la direction jusqu'à sa mort.
 Son rôle dans l'organisation de la recherche scientifique de son pays est très important. Il contribue notamment à ce que la recherche scientifique soit intégrée à l'enseignement universitaire. Il participe, aux côtés de Sir Martin Onslow Forster (1872-1945) et d'autres scientifiques indiens, à la fondation, en juillet 1932, de Current Science, inspiré de la revue Nature. Narayan Rao en sera le premier rédacteur en chef. Dans l'un de ses premiers éditoriaux, il plaide pour une coordination des activités scientifiques dans le pays et appelle à la création d'une Académie des sciences.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notes on some south Indian Batrachia. Records of the Indian Museum XII (1915)
 Notes on the tadpoles of Indian Engystomatidae Records of the Indian Museum XV (1918)
@@ -580,7 +596,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">B.R. Seshachar (1960). Obituary. Prof. C.R. Narayan Rao, Current Science, 29 : 173.  (ISSN 0011-3891)
 Rao est l’abréviation habituelle de C.R. Narayan Rao en zoologie.
